--- a/ddsheet.xlsx
+++ b/ddsheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="62">
   <si>
     <t>能力値</t>
     <rPh sb="0" eb="3">
@@ -114,10 +114,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>プレーヤー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>所持品</t>
     <rPh sb="0" eb="2">
       <t>ショジ</t>
@@ -184,15 +180,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>:</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>AC</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>:</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -325,6 +313,34 @@
   </si>
   <si>
     <t>en</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレーヤー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>:</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>:</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>:</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>:</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -332,7 +348,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -377,6 +393,24 @@
       <name val="メイリオ"/>
       <charset val="128"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -386,7 +420,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -499,43 +533,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -545,8 +542,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -602,102 +605,104 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -967,7 +972,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -980,7 +985,9 @@
   </sheetPr>
   <dimension ref="A1:AB55"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="62" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="62" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
@@ -989,7 +996,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="33.75" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="39" t="s">
         <v>17</v>
       </c>
       <c r="B1" s="16"/>
@@ -1001,17 +1008,19 @@
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="7"/>
-      <c r="H2" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="2"/>
+      <c r="H2" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="27"/>
+      <c r="J2" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-      <c r="O2" s="30" t="s">
-        <v>48</v>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="26" t="s">
+        <v>45</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>16</v>
@@ -1019,9 +1028,9 @@
       <c r="Q2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="28"/>
+      <c r="R2" s="24"/>
       <c r="S2" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
@@ -1040,8 +1049,8 @@
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
       <c r="F3" s="10"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
     </row>
     <row r="4" spans="1:28" ht="19">
       <c r="A4" s="8"/>
@@ -1050,23 +1059,25 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="10"/>
-      <c r="H4" s="31" t="s">
+      <c r="H4" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="2"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
       <c r="P4" s="3">
         <v>1</v>
       </c>
-      <c r="Q4" s="28" t="s">
-        <v>51</v>
+      <c r="Q4" s="24" t="s">
+        <v>48</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
@@ -1086,8 +1097,8 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="10"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
     </row>
     <row r="6" spans="1:28" ht="19">
       <c r="A6" s="8"/>
@@ -1096,22 +1107,23 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="10"/>
-      <c r="H6" s="31" t="s">
+      <c r="H6" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" s="2"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
       <c r="P6" s="3">
         <v>2</v>
       </c>
-      <c r="Q6" s="28" t="s">
-        <v>51</v>
+      <c r="Q6" s="24" t="s">
+        <v>48</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
@@ -1131,8 +1143,8 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="10"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
     </row>
     <row r="8" spans="1:28" ht="19">
       <c r="A8" s="8"/>
@@ -1141,22 +1153,23 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="10"/>
-      <c r="H8" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8" s="2"/>
+      <c r="H8" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="27"/>
+      <c r="J8" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
       <c r="P8" s="3">
         <v>3</v>
       </c>
-      <c r="Q8" s="28" t="s">
-        <v>51</v>
+      <c r="Q8" s="24" t="s">
+        <v>48</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
@@ -1176,8 +1189,8 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="10"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
     </row>
     <row r="10" spans="1:28" ht="19">
       <c r="A10" s="8"/>
@@ -1186,21 +1199,23 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="10"/>
-      <c r="H10" s="31" t="s">
+      <c r="H10" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="J10" s="2"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
       <c r="P10" s="3">
         <v>4</v>
       </c>
-      <c r="Q10" s="28" t="s">
-        <v>51</v>
+      <c r="Q10" s="24" t="s">
+        <v>48</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
@@ -1220,8 +1235,8 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="10"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
     </row>
     <row r="12" spans="1:28" ht="19">
       <c r="A12" s="8"/>
@@ -1230,21 +1245,23 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="10"/>
-      <c r="H12" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="J12" s="2"/>
+      <c r="H12" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="27"/>
+      <c r="J12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
       <c r="P12" s="3">
         <v>5</v>
       </c>
-      <c r="Q12" s="28" t="s">
-        <v>51</v>
+      <c r="Q12" s="24" t="s">
+        <v>48</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
@@ -1275,11 +1292,11 @@
       <c r="P14" s="3">
         <v>6</v>
       </c>
-      <c r="Q14" s="28" t="s">
-        <v>51</v>
+      <c r="Q14" s="24" t="s">
+        <v>48</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
@@ -1301,66 +1318,66 @@
       <c r="F15" s="12"/>
     </row>
     <row r="17" spans="1:28">
-      <c r="A17" s="12"/>
-      <c r="B17" s="27" t="s">
+      <c r="A17" s="10"/>
+      <c r="B17" s="23" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="14"/>
-      <c r="D17" s="23">
+      <c r="D17" s="20">
         <v>1</v>
       </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23">
+      <c r="E17" s="20"/>
+      <c r="F17" s="20">
         <v>2</v>
       </c>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23">
+      <c r="G17" s="20"/>
+      <c r="H17" s="20">
         <v>3</v>
       </c>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23">
+      <c r="I17" s="20"/>
+      <c r="J17" s="20">
         <v>4</v>
       </c>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23">
+      <c r="K17" s="20"/>
+      <c r="L17" s="20">
         <v>5</v>
       </c>
-      <c r="M17" s="23"/>
-      <c r="N17" s="24">
+      <c r="M17" s="20"/>
+      <c r="N17" s="21">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:28" ht="19">
-      <c r="A18" s="39" t="s">
-        <v>45</v>
+      <c r="A18" s="46" t="s">
+        <v>42</v>
       </c>
       <c r="B18" s="9"/>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="18"/>
-      <c r="I18" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="J18" s="18"/>
-      <c r="K18" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="L18" s="18"/>
-      <c r="M18" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="N18" s="19"/>
-      <c r="O18" s="31" t="s">
-        <v>19</v>
+      <c r="F18" s="17"/>
+      <c r="G18" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="17"/>
+      <c r="I18" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" s="17"/>
+      <c r="K18" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="L18" s="17"/>
+      <c r="M18" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="N18" s="18"/>
+      <c r="O18" s="27" t="s">
+        <v>18</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
@@ -1372,100 +1389,101 @@
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
-      <c r="Z18" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA18" s="44"/>
-      <c r="AB18" s="46" t="s">
-        <v>57</v>
+      <c r="Z18" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA18" s="36"/>
+      <c r="AB18" s="38" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:28">
-      <c r="A19" s="40"/>
+      <c r="A19" s="46"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="26"/>
+      <c r="C19" s="44"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="21"/>
+      <c r="E19" s="41"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="21"/>
+      <c r="G19" s="41"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="21"/>
+      <c r="I19" s="41"/>
       <c r="J19" s="3"/>
-      <c r="K19" s="21"/>
+      <c r="K19" s="41"/>
       <c r="L19" s="3"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="22"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="19"/>
     </row>
     <row r="20" spans="1:28">
-      <c r="P20" s="28" t="s">
-        <v>20</v>
+      <c r="A20" s="9"/>
+      <c r="P20" s="24" t="s">
+        <v>19</v>
       </c>
       <c r="Q20" s="13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R20" s="13"/>
       <c r="S20" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T20" s="13"/>
       <c r="U20" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V20" s="13"/>
       <c r="W20" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X20" s="13"/>
       <c r="Y20" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z20" s="13"/>
       <c r="AA20" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AB20" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:28">
-      <c r="A21" s="12"/>
-      <c r="B21" s="23">
+      <c r="A21" s="10"/>
+      <c r="B21" s="20">
         <v>9</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C21" s="20">
         <v>8</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D21" s="20">
         <v>7</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="20">
         <v>6</v>
       </c>
-      <c r="F21" s="23">
+      <c r="F21" s="20">
         <v>5</v>
       </c>
-      <c r="G21" s="23">
+      <c r="G21" s="20">
         <v>4</v>
       </c>
-      <c r="H21" s="23">
+      <c r="H21" s="20">
         <v>3</v>
       </c>
-      <c r="I21" s="23">
+      <c r="I21" s="20">
         <v>2</v>
       </c>
-      <c r="J21" s="23">
+      <c r="J21" s="20">
         <v>1</v>
       </c>
-      <c r="K21" s="23">
+      <c r="K21" s="20">
         <v>0</v>
       </c>
-      <c r="L21" s="23">
+      <c r="L21" s="20">
         <v>-1</v>
       </c>
-      <c r="M21" s="23">
+      <c r="M21" s="20">
         <v>-2</v>
       </c>
-      <c r="N21" s="24">
+      <c r="N21" s="21">
         <v>-3</v>
       </c>
       <c r="P21" s="15"/>
@@ -1477,8 +1495,8 @@
       <c r="V21" s="9"/>
     </row>
     <row r="22" spans="1:28">
-      <c r="A22" s="41" t="s">
-        <v>46</v>
+      <c r="A22" s="47" t="s">
+        <v>43</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -1493,26 +1511,26 @@
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
       <c r="N22" s="10"/>
-      <c r="P22" s="36" t="s">
+      <c r="P22" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="30"/>
+      <c r="S22" s="30"/>
+      <c r="T22" s="30"/>
+      <c r="U22" s="30"/>
+      <c r="V22" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="Q22" s="34"/>
-      <c r="R22" s="34"/>
-      <c r="S22" s="34"/>
-      <c r="T22" s="34"/>
-      <c r="U22" s="34"/>
-      <c r="V22" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="W22" s="34"/>
-      <c r="X22" s="34"/>
-      <c r="Y22" s="34"/>
-      <c r="Z22" s="34"/>
-      <c r="AA22" s="34"/>
-      <c r="AB22" s="34"/>
+      <c r="W22" s="30"/>
+      <c r="X22" s="30"/>
+      <c r="Y22" s="30"/>
+      <c r="Z22" s="30"/>
+      <c r="AA22" s="30"/>
+      <c r="AB22" s="30"/>
     </row>
     <row r="23" spans="1:28">
-      <c r="A23" s="42"/>
+      <c r="A23" s="47"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1526,7 +1544,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="12"/>
-      <c r="O23" s="32"/>
+      <c r="O23" s="28"/>
     </row>
     <row r="24" spans="1:28">
       <c r="A24" s="9"/>
@@ -1541,21 +1559,21 @@
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
       <c r="V24" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="W24" s="33" t="s">
-        <v>54</v>
+        <v>50</v>
+      </c>
+      <c r="W24" s="29" t="s">
+        <v>51</v>
       </c>
       <c r="X24" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
       <c r="AA24" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AB24" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:28">
@@ -1572,18 +1590,18 @@
       <c r="Z25" s="9"/>
     </row>
     <row r="26" spans="1:28" ht="19">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="34" t="s">
         <v>0</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="3"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="20" t="s">
+      <c r="E26" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="F26" s="20"/>
-      <c r="H26" s="37" t="s">
-        <v>39</v>
+      <c r="F26" s="42"/>
+      <c r="H26" s="33" t="s">
+        <v>36</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -1597,31 +1615,31 @@
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
       <c r="V26" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="W26" s="33" t="s">
-        <v>54</v>
+        <v>50</v>
+      </c>
+      <c r="W26" s="29" t="s">
+        <v>51</v>
       </c>
       <c r="X26" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
       <c r="AA26" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AB26" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:28">
-      <c r="A27" s="18"/>
+      <c r="A27" s="17"/>
       <c r="B27" s="9"/>
-      <c r="C27" s="18"/>
+      <c r="C27" s="17"/>
       <c r="D27" s="9"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="H27" s="29"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="H27" s="25"/>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
@@ -1647,21 +1665,21 @@
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
       <c r="V28" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="W28" s="33" t="s">
-        <v>54</v>
+        <v>50</v>
+      </c>
+      <c r="W28" s="29" t="s">
+        <v>51</v>
       </c>
       <c r="X28" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
       <c r="AA28" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AB28" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:28">
@@ -1671,13 +1689,13 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
@@ -1693,23 +1711,23 @@
     </row>
     <row r="30" spans="1:28">
       <c r="F30" s="4"/>
-      <c r="P30" s="36" t="s">
+      <c r="P30" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q30" s="30"/>
+      <c r="R30" s="30"/>
+      <c r="S30" s="30"/>
+      <c r="T30" s="30"/>
+      <c r="U30" s="30"/>
+      <c r="V30" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="Q30" s="34"/>
-      <c r="R30" s="34"/>
-      <c r="S30" s="34"/>
-      <c r="T30" s="34"/>
-      <c r="U30" s="34"/>
-      <c r="V30" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="W30" s="34"/>
-      <c r="X30" s="34"/>
-      <c r="Y30" s="34"/>
-      <c r="Z30" s="34"/>
-      <c r="AA30" s="34"/>
-      <c r="AB30" s="34"/>
+      <c r="W30" s="30"/>
+      <c r="X30" s="30"/>
+      <c r="Y30" s="30"/>
+      <c r="Z30" s="30"/>
+      <c r="AA30" s="30"/>
+      <c r="AB30" s="30"/>
     </row>
     <row r="31" spans="1:28">
       <c r="F31" s="4"/>
@@ -1721,13 +1739,13 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
@@ -1740,19 +1758,19 @@
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
       <c r="V32" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="W32" s="33"/>
+        <v>50</v>
+      </c>
+      <c r="W32" s="29"/>
       <c r="X32" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
       <c r="AA32" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AB32" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:28">
@@ -1767,19 +1785,19 @@
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
       <c r="V34" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="W34" s="33"/>
+        <v>50</v>
+      </c>
+      <c r="W34" s="29"/>
       <c r="X34" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
       <c r="AA34" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AB34" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:28">
@@ -1789,13 +1807,13 @@
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
@@ -1811,19 +1829,19 @@
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
       <c r="V36" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="W36" s="33"/>
+        <v>50</v>
+      </c>
+      <c r="W36" s="29"/>
       <c r="X36" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
       <c r="AA36" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AB36" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:28">
@@ -1836,33 +1854,33 @@
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
-      <c r="P38" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q38" s="34"/>
-      <c r="R38" s="34"/>
-      <c r="S38" s="34"/>
-      <c r="T38" s="34"/>
-      <c r="U38" s="34"/>
-      <c r="V38" s="34"/>
-      <c r="W38" s="34"/>
-      <c r="X38" s="34"/>
-      <c r="Y38" s="34"/>
-      <c r="Z38" s="34"/>
-      <c r="AA38" s="34"/>
-      <c r="AB38" s="34"/>
+      <c r="P38" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q38" s="30"/>
+      <c r="R38" s="30"/>
+      <c r="S38" s="30"/>
+      <c r="T38" s="30"/>
+      <c r="U38" s="30"/>
+      <c r="V38" s="30"/>
+      <c r="W38" s="30"/>
+      <c r="X38" s="30"/>
+      <c r="Y38" s="30"/>
+      <c r="Z38" s="30"/>
+      <c r="AA38" s="30"/>
+      <c r="AB38" s="30"/>
     </row>
     <row r="39" spans="1:28">
       <c r="F39" s="4"/>
@@ -1873,18 +1891,22 @@
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
       <c r="S40" s="2"/>
-      <c r="T40" s="2"/>
-      <c r="U40" s="2"/>
-      <c r="V40" s="2"/>
-      <c r="W40" s="33"/>
+      <c r="T40" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="U40" s="45"/>
+      <c r="V40" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="W40" s="29"/>
       <c r="X40" s="13"/>
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
       <c r="AA40" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AB40" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:28">
@@ -1894,13 +1916,13 @@
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
@@ -1913,18 +1935,22 @@
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
       <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
-      <c r="U42" s="2"/>
-      <c r="V42" s="2"/>
-      <c r="W42" s="33"/>
+      <c r="T42" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="U42" s="45"/>
+      <c r="V42" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="W42" s="29"/>
       <c r="X42" s="13"/>
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
       <c r="AA42" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AB42" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:28">
@@ -1937,27 +1963,31 @@
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
       <c r="S44" s="2"/>
-      <c r="T44" s="2"/>
-      <c r="U44" s="2"/>
-      <c r="V44" s="2"/>
-      <c r="W44" s="33"/>
+      <c r="T44" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="U44" s="45"/>
+      <c r="V44" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="W44" s="29"/>
       <c r="X44" s="13"/>
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
       <c r="AA44" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AB44" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:28">
@@ -1965,22 +1995,26 @@
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
       <c r="S46" s="2"/>
-      <c r="T46" s="2"/>
-      <c r="U46" s="2"/>
-      <c r="V46" s="2"/>
-      <c r="W46" s="33"/>
+      <c r="T46" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="U46" s="45"/>
+      <c r="V46" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="W46" s="29"/>
       <c r="X46" s="13"/>
       <c r="Y46" s="2"/>
       <c r="Z46" s="2"/>
       <c r="AA46" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AB46" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="1:28">
-      <c r="A48" s="30" t="s">
+      <c r="A48" s="26" t="s">
         <v>9</v>
       </c>
       <c r="B48" s="2"/>
@@ -1996,18 +2030,22 @@
       <c r="Q48" s="2"/>
       <c r="R48" s="2"/>
       <c r="S48" s="2"/>
-      <c r="T48" s="2"/>
-      <c r="U48" s="2"/>
-      <c r="V48" s="2"/>
-      <c r="W48" s="33"/>
+      <c r="T48" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="U48" s="45"/>
+      <c r="V48" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="W48" s="29"/>
       <c r="X48" s="13"/>
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
       <c r="AA48" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AB48" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:28">
@@ -2015,23 +2053,27 @@
       <c r="Q50" s="2"/>
       <c r="R50" s="2"/>
       <c r="S50" s="2"/>
-      <c r="T50" s="2"/>
-      <c r="U50" s="2"/>
-      <c r="V50" s="2"/>
-      <c r="W50" s="33"/>
+      <c r="T50" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="U50" s="45"/>
+      <c r="V50" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="W50" s="29"/>
       <c r="X50" s="13"/>
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
       <c r="AA50" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AB50" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51" spans="1:28">
-      <c r="A51" s="30" t="s">
-        <v>47</v>
+      <c r="A51" s="26" t="s">
+        <v>44</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -2044,18 +2086,22 @@
       <c r="Q52" s="2"/>
       <c r="R52" s="2"/>
       <c r="S52" s="2"/>
-      <c r="T52" s="2"/>
-      <c r="U52" s="2"/>
-      <c r="V52" s="2"/>
-      <c r="W52" s="33"/>
+      <c r="T52" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="U52" s="45"/>
+      <c r="V52" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="W52" s="29"/>
       <c r="X52" s="13"/>
       <c r="Y52" s="2"/>
       <c r="Z52" s="2"/>
       <c r="AA52" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AB52" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53" spans="1:28">
@@ -2070,18 +2116,22 @@
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
       <c r="S54" s="2"/>
-      <c r="T54" s="2"/>
-      <c r="U54" s="2"/>
-      <c r="V54" s="2"/>
-      <c r="W54" s="33"/>
+      <c r="T54" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="U54" s="45"/>
+      <c r="V54" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="W54" s="29"/>
       <c r="X54" s="13"/>
       <c r="Y54" s="2"/>
       <c r="Z54" s="2"/>
       <c r="AA54" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AB54" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55" spans="1:28">
